--- a/BackTest/2020-01-13 BackTest HC.xlsx
+++ b/BackTest/2020-01-13 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>899.4390752799999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>899.4390752799999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1378</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>839.0420752799998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1378</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,19 @@
         <v>889.3089752799998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="J5" t="n">
         <v>1368</v>
       </c>
-      <c r="K5" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +587,21 @@
         <v>834.5532752799998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +626,23 @@
         <v>835.0532752799998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="J7" t="n">
         <v>1368</v>
       </c>
-      <c r="K7" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -710,24 +669,19 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1376</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -754,24 +708,19 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1365</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -798,24 +747,19 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +784,21 @@
         <v>790.4532752799997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -886,24 +825,19 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>1368</v>
       </c>
-      <c r="K12" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +862,21 @@
         <v>721.1630752799997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +901,21 @@
         <v>692.6330752799997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>1365</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +940,21 @@
         <v>727.1268752799997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>1357</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +979,21 @@
         <v>727.5268752799997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>1364</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1018,21 @@
         <v>691.6568752799997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>1374</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1057,21 @@
         <v>658.3268752799996</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>1368</v>
       </c>
-      <c r="K18" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1194,22 +1098,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1234,24 +1135,21 @@
         <v>628.1631752799996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1276,26 +1174,21 @@
         <v>618.1631752799996</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1322,24 +1215,19 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1364,26 +1252,23 @@
         <v>586.7586752799996</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="J23" t="n">
-        <v>1371</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1410,24 +1295,19 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>1369</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1452,26 +1332,21 @@
         <v>531.6612752799996</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>1366</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1496,26 +1371,23 @@
         <v>557.0025752799996</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="J26" t="n">
-        <v>1353</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1540,26 +1412,23 @@
         <v>557.4025752799996</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="J27" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1586,22 +1455,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1626,26 +1492,23 @@
         <v>-803.4408247200005</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J29" t="n">
-        <v>1350</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1672,22 +1535,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1714,22 +1574,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1754,24 +1611,23 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>1350</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1796,26 +1652,23 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J33" t="n">
-        <v>1350</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1842,22 +1695,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1882,26 +1732,23 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="J35" t="n">
-        <v>1369</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1928,22 +1775,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1968,24 +1812,23 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>1369</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2010,26 +1853,23 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="J38" t="n">
-        <v>1363</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1368</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2054,24 +1894,23 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>1370</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2096,24 +1935,23 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>1374</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2138,24 +1976,23 @@
         <v>-603.7779247200004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>1374</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2182,22 +2019,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2224,22 +2058,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2266,22 +2097,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2308,22 +2136,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2350,22 +2175,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2392,22 +2214,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2434,22 +2253,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2476,22 +2292,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2518,22 +2331,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2560,22 +2370,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2602,22 +2409,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2644,22 +2448,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2686,22 +2487,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2728,22 +2526,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2770,22 +2565,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2812,22 +2604,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2854,22 +2643,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2896,22 +2682,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2938,22 +2721,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2980,22 +2760,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3022,22 +2799,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3064,22 +2838,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3106,22 +2877,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3148,22 +2916,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3190,22 +2955,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3232,22 +2994,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3274,22 +3033,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3316,22 +3072,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1378</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1.00733671988389</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3358,16 +3111,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3394,16 +3150,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3430,16 +3189,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3466,16 +3228,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3502,16 +3267,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3538,16 +3306,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3574,16 +3345,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3610,16 +3384,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,16 +3423,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3682,16 +3462,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3718,16 +3501,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3754,16 +3540,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3790,16 +3579,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3826,16 +3618,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3862,16 +3657,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3898,16 +3696,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3934,16 +3735,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3970,16 +3774,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4006,16 +3813,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4042,16 +3852,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4078,16 +3891,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4114,16 +3930,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4150,16 +3969,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4186,16 +4008,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4222,16 +4047,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4258,16 +4086,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4294,16 +4125,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4330,16 +4164,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4366,16 +4203,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4402,16 +4242,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4438,16 +4281,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4474,16 +4320,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4510,16 +4359,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4546,16 +4398,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4582,16 +4437,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4616,18 +4474,21 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1368</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.008888888888889</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4654,16 +4515,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4688,18 +4546,15 @@
         <v>13544.84168187</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4726,16 +4581,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4760,18 +4612,15 @@
         <v>5935.535781870002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4798,16 +4647,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,18 +4678,15 @@
         <v>5989.702417000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4870,16 +4713,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4906,16 +4746,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4942,18 +4779,15 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest HC.xlsx
+++ b/BackTest/2020-01-13 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>889.3089752799998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1368</v>
@@ -626,7 +626,7 @@
         <v>835.0532752799998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1368</v>
@@ -667,7 +667,7 @@
         <v>825.0532752799998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -706,7 +706,7 @@
         <v>790.0532752799998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
@@ -745,7 +745,7 @@
         <v>790.0532752799998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -823,7 +823,7 @@
         <v>716.7630752799997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -862,9 +862,11 @@
         <v>721.1630752799997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1355</v>
+      </c>
       <c r="J13" t="n">
         <v>1368</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>628.1631752799996</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1215,7 +1217,9 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1354</v>
+      </c>
       <c r="J22" t="n">
         <v>1368</v>
       </c>
@@ -1252,11 +1256,9 @@
         <v>586.7586752799996</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1368</v>
       </c>
@@ -1295,7 +1297,9 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1369</v>
+      </c>
       <c r="J24" t="n">
         <v>1368</v>
       </c>
@@ -1332,9 +1336,11 @@
         <v>531.6612752799996</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1366</v>
+      </c>
       <c r="J25" t="n">
         <v>1368</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>557.0025752799996</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1353</v>
@@ -1412,7 +1418,7 @@
         <v>557.4025752799996</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1355</v>
@@ -1453,9 +1459,11 @@
         <v>-803.8408247200005</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1369</v>
+      </c>
       <c r="J28" t="n">
         <v>1368</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>-803.4408247200005</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1350</v>
@@ -1533,9 +1541,11 @@
         <v>-817.0008247200004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1369</v>
+      </c>
       <c r="J30" t="n">
         <v>1368</v>
       </c>
@@ -1572,9 +1582,11 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1351</v>
+      </c>
       <c r="J31" t="n">
         <v>1368</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1350</v>
@@ -1652,7 +1664,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1350</v>
@@ -1693,9 +1705,11 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1369</v>
+      </c>
       <c r="J34" t="n">
         <v>1368</v>
       </c>
@@ -1732,7 +1746,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1369</v>
@@ -1773,9 +1787,11 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1369</v>
+      </c>
       <c r="J36" t="n">
         <v>1368</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1369</v>
@@ -1853,7 +1869,7 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1363</v>
@@ -1894,7 +1910,7 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1370</v>
@@ -1935,7 +1951,7 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1374</v>
@@ -1976,11 +1992,9 @@
         <v>-603.7779247200004</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>1368</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
@@ -3741,11 +3755,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>1.010350877192983</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3772,17 +3786,11 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3811,17 +3819,11 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3850,17 +3852,11 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3889,17 +3885,11 @@
         <v>7109.413381870002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3928,17 +3918,11 @@
         <v>7124.913381870002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3967,17 +3951,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4006,17 +3984,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4045,17 +4017,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4084,17 +4050,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4123,17 +4083,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4162,17 +4116,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4201,17 +4149,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4240,17 +4182,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4279,17 +4215,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4318,17 +4248,11 @@
         <v>13627.27868187</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4357,17 +4281,11 @@
         <v>13607.27868187</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4396,17 +4314,11 @@
         <v>13619.60868187</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4435,17 +4347,11 @@
         <v>13625.65868187</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4474,19 +4380,13 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>1.008888888888889</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -4513,7 +4413,7 @@
         <v>13595.21518187</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4546,7 +4446,7 @@
         <v>13544.84168187</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4612,7 +4512,7 @@
         <v>5935.535781870002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4678,7 +4578,7 @@
         <v>5989.702417000002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4711,7 +4611,7 @@
         <v>5963.994617000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4744,7 +4644,7 @@
         <v>8662.207717000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4777,7 +4677,7 @@
         <v>8662.707717000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4788,6 +4688,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest HC.xlsx
+++ b/BackTest/2020-01-13 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>899.4390752799999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,14 +550,10 @@
         <v>889.3089752799998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1368</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,603 +586,509 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1376</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>835.0532752799998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>825.0532752799998</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>790.0532752799998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1362</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>790.0532752799998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>1368</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="C11" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1368</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>790.4532752799997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F12" t="n">
+        <v>73.6902</v>
+      </c>
+      <c r="G12" t="n">
+        <v>716.7630752799997</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1362</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>721.1630752799997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1357</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1357</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="G14" t="n">
+        <v>692.6330752799997</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1364</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1364</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34.4938</v>
+      </c>
+      <c r="G15" t="n">
+        <v>727.1268752799997</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1374</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1374</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>727.5268752799997</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1368</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1367</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="G17" t="n">
+        <v>691.6568752799997</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>658.3268752799996</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>658.7268752799996</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30.5637</v>
+      </c>
+      <c r="G20" t="n">
+        <v>628.1631752799996</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1354</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1354</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>618.1631752799996</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1376</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1376</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1376</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1376</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>835.0532752799998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1365</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1365</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1365</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>825.0532752799998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1365</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1365</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1355</v>
-      </c>
-      <c r="F9" t="n">
-        <v>35</v>
-      </c>
-      <c r="G9" t="n">
-        <v>790.0532752799998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1362</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1362</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1355</v>
-      </c>
-      <c r="F10" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="G10" t="n">
-        <v>790.0532752799998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>790.4532752799997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="F12" t="n">
-        <v>73.6902</v>
-      </c>
-      <c r="G12" t="n">
-        <v>716.7630752799997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1362</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1365</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1362</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>721.1630752799997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1355</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1357</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1357</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1357</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F14" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="G14" t="n">
-        <v>692.6330752799997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1364</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1364</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1364</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1364</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34.4938</v>
-      </c>
-      <c r="G15" t="n">
-        <v>727.1268752799997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1374</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1374</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1374</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1374</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>727.5268752799997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1367</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1368</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1368</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1367</v>
-      </c>
-      <c r="F17" t="n">
-        <v>35.87</v>
-      </c>
-      <c r="G17" t="n">
-        <v>691.6568752799997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1364</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1364</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1355</v>
-      </c>
-      <c r="F18" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="G18" t="n">
-        <v>658.3268752799996</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1370</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1370</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1370</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1370</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>658.7268752799996</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30.5637</v>
-      </c>
-      <c r="G20" t="n">
-        <v>628.1631752799996</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1355</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1354</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1355</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1354</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" t="n">
-        <v>618.1631752799996</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1220,9 +1122,7 @@
       <c r="I22" t="n">
         <v>1354</v>
       </c>
-      <c r="J22" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1295,14 +1193,10 @@
         <v>551.6612752799996</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,9 +1235,7 @@
       <c r="I25" t="n">
         <v>1366</v>
       </c>
-      <c r="J25" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,9 +1274,7 @@
       <c r="I26" t="n">
         <v>1353</v>
       </c>
-      <c r="J26" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1423,9 +1313,7 @@
       <c r="I27" t="n">
         <v>1355</v>
       </c>
-      <c r="J27" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,14 +1347,10 @@
         <v>-803.8408247200005</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,14 +1384,10 @@
         <v>-803.4408247200005</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1541,14 +1421,10 @@
         <v>-817.0008247200004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,14 +1458,10 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1351</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1623,14 +1495,10 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1664,14 +1532,10 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1705,14 +1569,10 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1746,14 +1606,10 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1787,14 +1643,10 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1828,14 +1680,10 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,14 +1717,10 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1363</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,14 +1754,10 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1370</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1951,14 +1791,10 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1374</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1995,9 +1831,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2034,9 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2073,9 +1905,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,9 +1942,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2151,9 +1979,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2190,9 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,9 +2053,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2265,20 +2087,16 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1368</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2304,17 +2122,11 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2346,14 +2158,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2385,14 +2191,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2421,17 +2221,11 @@
         <v>5997.036086829999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2463,14 +2257,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2502,14 +2290,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2541,14 +2323,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2580,14 +2356,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2619,14 +2389,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2658,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2697,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2736,14 +2488,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2775,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2814,14 +2554,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2853,14 +2587,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2892,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2931,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2970,14 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2719,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3048,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3087,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3126,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3165,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3204,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3243,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3282,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3399,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3438,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3477,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3513,17 +3145,11 @@
         <v>10071.91648187</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3552,17 +3178,11 @@
         <v>10071.91648187</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3594,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3672,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3711,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3747,19 +3343,13 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1368</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.010350877192983</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3786,7 +3376,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3852,7 +3442,7 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3885,7 +3475,7 @@
         <v>7109.413381870002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3918,7 +3508,7 @@
         <v>7124.913381870002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3951,7 +3541,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3984,7 +3574,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4017,7 +3607,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4050,7 +3640,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4083,7 +3673,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4116,7 +3706,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4149,7 +3739,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4182,7 +3772,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4215,7 +3805,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4248,7 +3838,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4281,7 +3871,7 @@
         <v>13607.27868187</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4314,7 +3904,7 @@
         <v>13619.60868187</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4347,7 +3937,7 @@
         <v>13625.65868187</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4380,7 +3970,7 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4413,7 +4003,7 @@
         <v>13595.21518187</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4578,7 +4168,7 @@
         <v>5989.702417000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4611,7 +4201,7 @@
         <v>5963.994617000002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4644,7 +4234,7 @@
         <v>8662.207717000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4677,7 +4267,7 @@
         <v>8662.707717000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4688,6 +4278,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest HC.xlsx
+++ b/BackTest/2020-01-13 BackTest HC.xlsx
@@ -1078,17 +1078,11 @@
         <v>618.1631752799996</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1122,12 +1116,10 @@
       <c r="I22" t="n">
         <v>1354</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1159,10 +1151,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1354</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1196,7 +1190,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1354</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,12 +1226,12 @@
         <v>531.6612752799996</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1366</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1354</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1274,7 +1270,9 @@
       <c r="I26" t="n">
         <v>1353</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1354</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1313,7 +1311,9 @@
       <c r="I27" t="n">
         <v>1355</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1354</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1347,10 +1347,14 @@
         <v>-803.8408247200005</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1354</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,10 +1388,14 @@
         <v>-803.4408247200005</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1350</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1354</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1424,7 +1432,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1354</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1461,7 +1471,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1354</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1495,10 +1507,14 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1350</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1354</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,10 +1548,14 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1350</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1354</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1569,10 +1589,14 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1354</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,10 +1630,14 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1354</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,10 +1671,14 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1354</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,10 +1712,14 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1369</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1354</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1717,10 +1753,14 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1363</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1354</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,10 +1794,14 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1370</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1354</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,10 +1835,14 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1374</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1354</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,7 +1879,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1354</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1868,7 +1918,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1354</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1902,10 +1954,14 @@
         <v>828.8740660499997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1375</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1354</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,7 +1998,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1354</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,7 +2037,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1354</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,7 +2076,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1354</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,7 +2115,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1354</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,16 +2151,20 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1354</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2122,11 +2190,17 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2158,8 +2232,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2191,8 +2271,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2307,17 @@
         <v>5997.036086829999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2257,8 +2349,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2290,8 +2388,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2323,8 +2427,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2356,8 +2466,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2389,8 +2505,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2422,8 +2544,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2455,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2488,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2521,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2554,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2587,8 +2739,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2620,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2653,8 +2817,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2683,13 +2853,19 @@
         <v>9205.63808187</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1354</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>1.026019202363368</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2815,7 +2991,7 @@
         <v>9196.17278187</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2881,7 +3057,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2914,7 +3090,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2947,7 +3123,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2980,7 +3156,7 @@
         <v>10261.04038187</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3013,7 +3189,7 @@
         <v>10260.64038187</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3145,7 +3321,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3178,7 +3354,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3343,7 +3519,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3376,7 +3552,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3409,7 +3585,7 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3607,7 +3783,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3937,7 +4113,7 @@
         <v>13625.65868187</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3970,7 +4146,7 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4003,7 +4179,7 @@
         <v>13595.21518187</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4036,7 +4212,7 @@
         <v>13544.84168187</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest HC.xlsx
+++ b/BackTest/2020-01-13 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33.05</v>
       </c>
       <c r="G2" t="n">
-        <v>899.4390752799999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3.1437</v>
       </c>
       <c r="G3" t="n">
-        <v>899.4390752799999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>60.397</v>
       </c>
       <c r="G4" t="n">
-        <v>839.0420752799998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>50.2669</v>
       </c>
       <c r="G5" t="n">
-        <v>889.3089752799998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>54.7557</v>
       </c>
       <c r="G6" t="n">
-        <v>834.5532752799998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>835.0532752799998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>825.0532752799998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>790.0532752799998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>36.36</v>
       </c>
       <c r="G10" t="n">
-        <v>790.0532752799998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>790.4532752799997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>73.6902</v>
       </c>
       <c r="G12" t="n">
-        <v>716.7630752799997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>721.1630752799997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,19 @@
         <v>28.53</v>
       </c>
       <c r="G14" t="n">
-        <v>692.6330752799997</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1365</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1365</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +837,21 @@
         <v>34.4938</v>
       </c>
       <c r="G15" t="n">
-        <v>727.1268752799997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1365</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +873,21 @@
         <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>727.5268752799997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1365</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +909,15 @@
         <v>35.87</v>
       </c>
       <c r="G17" t="n">
-        <v>691.6568752799997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +939,15 @@
         <v>33.33</v>
       </c>
       <c r="G18" t="n">
-        <v>658.3268752799996</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,19 @@
         <v>0.4</v>
       </c>
       <c r="G19" t="n">
-        <v>658.7268752799996</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1355</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1355</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1003,21 @@
         <v>30.5637</v>
       </c>
       <c r="G20" t="n">
-        <v>628.1631752799996</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1039,23 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>618.1631752799996</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>1355</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,22 +1077,23 @@
         <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>618.5631752799995</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>1354</v>
       </c>
       <c r="I22" t="n">
-        <v>1354</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>1355</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1145,24 +1115,21 @@
         <v>31.8045</v>
       </c>
       <c r="G23" t="n">
-        <v>586.7586752799996</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1184,24 +1151,21 @@
         <v>35.0974</v>
       </c>
       <c r="G24" t="n">
-        <v>551.6612752799996</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,24 +1187,21 @@
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>531.6612752799996</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1262,26 +1223,21 @@
         <v>25.3413</v>
       </c>
       <c r="G26" t="n">
-        <v>557.0025752799996</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1353</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1303,26 +1259,21 @@
         <v>0.4</v>
       </c>
       <c r="G27" t="n">
-        <v>557.4025752799996</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>1355</v>
       </c>
-      <c r="J27" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1344,26 +1295,21 @@
         <v>1361.2434</v>
       </c>
       <c r="G28" t="n">
-        <v>-803.8408247200005</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1385,26 +1331,23 @@
         <v>0.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-803.4408247200005</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="I29" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1426,24 +1369,21 @@
         <v>13.56</v>
       </c>
       <c r="G30" t="n">
-        <v>-817.0008247200004</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1465,24 +1405,23 @@
         <v>0.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-817.5008247200004</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>1351</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,26 +1443,23 @@
         <v>2293.3569</v>
       </c>
       <c r="G32" t="n">
-        <v>-817.5008247200004</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="I32" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1545,26 +1481,23 @@
         <v>180</v>
       </c>
       <c r="G33" t="n">
-        <v>-637.5008247200004</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="I33" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1586,26 +1519,23 @@
         <v>175</v>
       </c>
       <c r="G34" t="n">
-        <v>-637.5008247200004</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>1369</v>
       </c>
       <c r="I34" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1627,26 +1557,21 @@
         <v>12.417</v>
       </c>
       <c r="G35" t="n">
-        <v>-637.5008247200004</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,26 +1593,23 @@
         <v>28.2346</v>
       </c>
       <c r="G36" t="n">
-        <v>-637.5008247200004</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>1369</v>
       </c>
       <c r="I36" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1709,26 +1631,21 @@
         <v>24.9787</v>
       </c>
       <c r="G37" t="n">
-        <v>-662.4795247200004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1750,26 +1667,21 @@
         <v>0.5</v>
       </c>
       <c r="G38" t="n">
-        <v>-661.9795247200004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>1363</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1791,26 +1703,23 @@
         <v>7.8086</v>
       </c>
       <c r="G39" t="n">
-        <v>-654.1709247200005</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>1370</v>
       </c>
       <c r="I39" t="n">
-        <v>1370</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1832,26 +1741,21 @@
         <v>60</v>
       </c>
       <c r="G40" t="n">
-        <v>-654.1709247200005</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>1374</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1873,24 +1777,21 @@
         <v>50.393</v>
       </c>
       <c r="G41" t="n">
-        <v>-603.7779247200004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,24 +1813,21 @@
         <v>90.10550000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-603.7779247200004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1951,26 +1849,21 @@
         <v>1432.65199077</v>
       </c>
       <c r="G43" t="n">
-        <v>828.8740660499997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>1375</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1992,24 +1885,21 @@
         <v>1684.97522078</v>
       </c>
       <c r="G44" t="n">
-        <v>2513.84928683</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2031,24 +1921,21 @@
         <v>0.4</v>
       </c>
       <c r="G45" t="n">
-        <v>2513.449286829999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2070,24 +1957,21 @@
         <v>3249.6937</v>
       </c>
       <c r="G46" t="n">
-        <v>5763.142986829999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2109,24 +1993,21 @@
         <v>35.804</v>
       </c>
       <c r="G47" t="n">
-        <v>5727.338986829999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,24 +2029,21 @@
         <v>25.7282</v>
       </c>
       <c r="G48" t="n">
-        <v>5727.338986829999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2187,24 +2065,21 @@
         <v>35.7247</v>
       </c>
       <c r="G49" t="n">
-        <v>5727.338986829999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2226,24 +2101,21 @@
         <v>0.4</v>
       </c>
       <c r="G50" t="n">
-        <v>5726.93898683</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2265,24 +2137,21 @@
         <v>119.3033</v>
       </c>
       <c r="G51" t="n">
-        <v>5846.242286829999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2304,24 +2173,21 @@
         <v>150.7938</v>
       </c>
       <c r="G52" t="n">
-        <v>5997.036086829999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2343,24 +2209,21 @@
         <v>107.8788</v>
       </c>
       <c r="G53" t="n">
-        <v>6104.91488683</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2382,24 +2245,21 @@
         <v>75.80410000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>6104.91488683</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,24 +2281,21 @@
         <v>318.8004</v>
       </c>
       <c r="G55" t="n">
-        <v>6423.71528683</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2460,24 +2317,21 @@
         <v>25.8086</v>
       </c>
       <c r="G56" t="n">
-        <v>6423.71528683</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2499,24 +2353,21 @@
         <v>2972.91469504</v>
       </c>
       <c r="G57" t="n">
-        <v>9396.629981869999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2538,24 +2389,21 @@
         <v>0.41</v>
       </c>
       <c r="G58" t="n">
-        <v>9396.219981869999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1.022306273062731</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2577,24 +2425,15 @@
         <v>47.2972</v>
       </c>
       <c r="G59" t="n">
-        <v>9443.51718187</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2616,24 +2455,15 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>9433.51718187</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2655,24 +2485,15 @@
         <v>0.4</v>
       </c>
       <c r="G61" t="n">
-        <v>9433.11718187</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2694,24 +2515,15 @@
         <v>32.2699</v>
       </c>
       <c r="G62" t="n">
-        <v>9465.38708187</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2733,24 +2545,15 @@
         <v>193.72</v>
       </c>
       <c r="G63" t="n">
-        <v>9271.66708187</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2772,24 +2575,15 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>9272.66708187</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2811,24 +2605,15 @@
         <v>28.27</v>
       </c>
       <c r="G65" t="n">
-        <v>9244.39708187</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2850,24 +2635,15 @@
         <v>38.759</v>
       </c>
       <c r="G66" t="n">
-        <v>9205.63808187</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1354</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1.026019202363368</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2889,18 +2665,15 @@
         <v>35.727</v>
       </c>
       <c r="G67" t="n">
-        <v>9205.63808187</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2922,18 +2695,15 @@
         <v>26.87</v>
       </c>
       <c r="G68" t="n">
-        <v>9232.508081870001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2955,18 +2725,15 @@
         <v>36.3353</v>
       </c>
       <c r="G69" t="n">
-        <v>9196.17278187</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2988,18 +2755,15 @@
         <v>65.9541</v>
       </c>
       <c r="G70" t="n">
-        <v>9196.17278187</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3021,18 +2785,15 @@
         <v>79.8591</v>
       </c>
       <c r="G71" t="n">
-        <v>9196.17278187</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3054,18 +2815,15 @@
         <v>528.0112</v>
       </c>
       <c r="G72" t="n">
-        <v>8668.161581869999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3087,18 +2845,15 @@
         <v>89.3044</v>
       </c>
       <c r="G73" t="n">
-        <v>8668.161581869999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3120,18 +2875,15 @@
         <v>70</v>
       </c>
       <c r="G74" t="n">
-        <v>8668.161581869999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,18 +2905,15 @@
         <v>1592.8788</v>
       </c>
       <c r="G75" t="n">
-        <v>10261.04038187</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3186,18 +2935,15 @@
         <v>0.4</v>
       </c>
       <c r="G76" t="n">
-        <v>10260.64038187</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3219,18 +2965,15 @@
         <v>222.1603</v>
       </c>
       <c r="G77" t="n">
-        <v>10038.48008187</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3252,18 +2995,15 @@
         <v>0.4</v>
       </c>
       <c r="G78" t="n">
-        <v>10038.08008187</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3285,18 +3025,15 @@
         <v>33.8364</v>
       </c>
       <c r="G79" t="n">
-        <v>10071.91648187</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,18 +3055,15 @@
         <v>342.0155</v>
       </c>
       <c r="G80" t="n">
-        <v>10071.91648187</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3351,18 +3085,15 @@
         <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>10071.91648187</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3384,18 +3115,15 @@
         <v>299.9814</v>
       </c>
       <c r="G82" t="n">
-        <v>10071.91648187</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3417,18 +3145,15 @@
         <v>2972.9147</v>
       </c>
       <c r="G83" t="n">
-        <v>7099.001781870002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3450,18 +3175,15 @@
         <v>132.752</v>
       </c>
       <c r="G84" t="n">
-        <v>7231.753781870002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3483,18 +3205,15 @@
         <v>23.589</v>
       </c>
       <c r="G85" t="n">
-        <v>7208.164781870002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3516,18 +3235,15 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>7209.164781870002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3549,18 +3265,15 @@
         <v>70.55889999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>7209.164781870002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3582,18 +3295,15 @@
         <v>12.3061</v>
       </c>
       <c r="G88" t="n">
-        <v>7196.858681870002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3615,18 +3325,15 @@
         <v>0.86</v>
       </c>
       <c r="G89" t="n">
-        <v>7196.858681870002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3648,18 +3355,15 @@
         <v>87.4453</v>
       </c>
       <c r="G90" t="n">
-        <v>7109.413381870002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3681,18 +3385,15 @@
         <v>15.5</v>
       </c>
       <c r="G91" t="n">
-        <v>7124.913381870002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,18 +3415,15 @@
         <v>6502.3653</v>
       </c>
       <c r="G92" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3747,18 +3445,15 @@
         <v>376.8453</v>
       </c>
       <c r="G93" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3780,18 +3475,15 @@
         <v>40.0072</v>
       </c>
       <c r="G94" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3813,18 +3505,15 @@
         <v>101.8321</v>
       </c>
       <c r="G95" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3846,18 +3535,15 @@
         <v>255.3671</v>
       </c>
       <c r="G96" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3879,18 +3565,15 @@
         <v>68.9952</v>
       </c>
       <c r="G97" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3595,15 @@
         <v>52.1925</v>
       </c>
       <c r="G98" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3945,18 +3625,15 @@
         <v>65.4966</v>
       </c>
       <c r="G99" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3978,18 +3655,15 @@
         <v>147.1768</v>
       </c>
       <c r="G100" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4011,18 +3685,15 @@
         <v>34.1715</v>
       </c>
       <c r="G101" t="n">
-        <v>13627.27868187</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4044,18 +3715,15 @@
         <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>13607.27868187</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4077,18 +3745,15 @@
         <v>12.33</v>
       </c>
       <c r="G103" t="n">
-        <v>13619.60868187</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4110,18 +3775,15 @@
         <v>6.05</v>
       </c>
       <c r="G104" t="n">
-        <v>13625.65868187</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4143,18 +3805,15 @@
         <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>13645.65868187</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4176,18 +3835,15 @@
         <v>50.4435</v>
       </c>
       <c r="G106" t="n">
-        <v>13595.21518187</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4209,18 +3865,15 @@
         <v>50.3735</v>
       </c>
       <c r="G107" t="n">
-        <v>13544.84168187</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4242,18 +3895,15 @@
         <v>7610.3059</v>
       </c>
       <c r="G108" t="n">
-        <v>5934.535781870002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4275,18 +3925,15 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>5935.535781870002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4308,18 +3955,15 @@
         <v>74.16663513</v>
       </c>
       <c r="G110" t="n">
-        <v>6009.702417000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4341,18 +3985,15 @@
         <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>5989.702417000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4374,18 +4015,15 @@
         <v>25.7078</v>
       </c>
       <c r="G112" t="n">
-        <v>5963.994617000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4407,18 +4045,15 @@
         <v>2698.2131</v>
       </c>
       <c r="G113" t="n">
-        <v>8662.207717000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4440,18 +4075,15 @@
         <v>0.5</v>
       </c>
       <c r="G114" t="n">
-        <v>8662.707717000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
